--- a/biology/Botanique/Caloscyphaceae/Caloscyphaceae.xlsx
+++ b/biology/Botanique/Caloscyphaceae/Caloscyphaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Caloscyphaceae sont une famille de champignons de l'ordre des Pezizales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Caloscyphaceae sont une famille de champignons de l'ordre des Pezizales.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Caloscypha
 Kallistoskypha</t>
@@ -542,10 +556,12 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Caloscypha fulgens (Pers. ) Boud. (anomorphe = Geniculodendron pyriforme[2]
-Kallistoskypha incarnata[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Caloscypha fulgens (Pers. ) Boud. (anomorphe = Geniculodendron pyriforme
+Kallistoskypha incarnata</t>
         </is>
       </c>
     </row>
@@ -573,11 +589,13 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (8 novembre 2013)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (8 novembre 2013) :
 genre Caloscypha
-Selon NCBI  (8 novembre 2013)[5] :
+Selon NCBI  (8 novembre 2013) :
 genre Caloscypha
 Caloscypha fulgens
 Caloscypha incarnata
